--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="189">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,247 +43,274 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>awful</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>crap</t>
   </si>
   <si>
     <t>disappointment</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
     <t>thin</t>
   </si>
   <si>
-    <t>terrible</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>inches</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>stopped</t>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>sorry</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>loose</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>rip</t>
   </si>
   <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>small</t>
+    <t>lasted</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>tried</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>might</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>parts</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seem</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>wood</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>might</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>otherwise</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>lasted</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>expensive</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>half</t>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>fit</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>charge</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>color</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>better</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>rec</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>away</t>
   </si>
   <si>
     <t>worked</t>
@@ -292,162 +319,126 @@
     <t>could</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>rec</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>seems</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>bigger</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>found</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>stick</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>ordered</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>put</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>found</t>
+    <t>something</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>looks</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>think</t>
+    <t>never</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>get</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>never</t>
+    <t>go</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>still</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>came</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>got</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
@@ -457,6 +448,9 @@
     <t>bought</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
@@ -475,6 +469,12 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -484,97 +484,100 @@
     <t>excellent</t>
   </si>
   <si>
-    <t>enjoyable</t>
+    <t>great</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>children</t>
-  </si>
-  <si>
-    <t>grandson</t>
+    <t>easy</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>well</t>
   </si>
   <si>
     <t>son</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>positive</t>
@@ -935,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -943,10 +946,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1004,13 +1007,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1022,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K3">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1054,13 +1057,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8888888888888888</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1072,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4">
-        <v>0.8392857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1104,13 +1107,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8636363636363636</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1122,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>0.8148148148148148</v>
@@ -1154,13 +1157,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8571428571428571</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1172,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K6">
-        <v>0.7096774193548387</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M6">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1204,38 +1207,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8095238095238095</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="C7">
+        <v>147</v>
+      </c>
+      <c r="D7">
+        <v>147</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L7">
         <v>17</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K7">
-        <v>0.6792452830188679</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>36</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1254,13 +1257,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7931034482758621</v>
+        <v>0.765625</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1272,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K8">
-        <v>0.640625</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1304,13 +1307,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1322,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K9">
-        <v>0.625</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1346,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1354,13 +1357,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.765625</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C10">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1372,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K10">
-        <v>0.4927536231884058</v>
+        <v>0.578125</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1404,13 +1407,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7580645161290323</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C11">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1422,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K11">
-        <v>0.4479081214109926</v>
+        <v>0.4602132895816243</v>
       </c>
       <c r="L11">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="M11">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1454,13 +1457,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7427184466019418</v>
+        <v>0.7524271844660194</v>
       </c>
       <c r="C12">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D12">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1472,19 +1475,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K12">
-        <v>0.418103448275862</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L12">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1493,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>405</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1504,13 +1507,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1522,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K13">
-        <v>0.3838174273858921</v>
+        <v>0.406025824964132</v>
       </c>
       <c r="L13">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="M13">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>297</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1554,13 +1557,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7368421052631579</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1572,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K14">
-        <v>0.3207547169811321</v>
+        <v>0.3921161825726141</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1604,13 +1607,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7272727272727273</v>
+        <v>0.7364864864864865</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1622,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K15">
-        <v>0.3166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1646,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1654,13 +1657,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7183098591549296</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1672,31 +1675,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K16">
-        <v>0.3006134969325153</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L16">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M16">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N16">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>228</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1704,13 +1707,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6891891891891891</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C17">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1722,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K17">
-        <v>0.291005291005291</v>
+        <v>0.3149847094801223</v>
       </c>
       <c r="L17">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="M17">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1746,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>134</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1754,13 +1757,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1772,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K18">
-        <v>0.283132530120482</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1796,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1825,28 +1828,28 @@
         <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K19">
-        <v>0.234375</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>98</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1854,13 +1857,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6722689075630253</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C20">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="D20">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1872,19 +1875,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K20">
-        <v>0.1927710843373494</v>
+        <v>0.2650602409638554</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1896,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1904,49 +1907,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C21">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>77</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21">
+        <v>0.234375</v>
+      </c>
+      <c r="L21">
         <v>30</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>30</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21">
-        <v>0.1830985915492958</v>
-      </c>
-      <c r="L21">
-        <v>26</v>
-      </c>
-      <c r="M21">
-        <v>27</v>
-      </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1954,13 +1957,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6545454545454545</v>
+        <v>0.64</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1972,31 +1975,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K22">
-        <v>0.1559139784946237</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2004,13 +2007,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6521739130434783</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2022,19 +2025,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K23">
-        <v>0.148506151142355</v>
+        <v>0.1895161290322581</v>
       </c>
       <c r="L23">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="M23">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>0.98</v>
@@ -2046,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>969</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2054,13 +2057,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.631578947368421</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2072,31 +2075,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K24">
-        <v>0.1452991452991453</v>
+        <v>0.1657848324514991</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>946</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2104,13 +2107,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6296296296296297</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2122,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K25">
-        <v>0.1233766233766234</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="L25">
         <v>19</v>
@@ -2146,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2154,13 +2157,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6296296296296297</v>
+        <v>0.6024096385542169</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2172,31 +2175,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K26">
-        <v>0.1229050279329609</v>
+        <v>0.1608391608391608</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>314</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2204,13 +2207,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6111111111111112</v>
+        <v>0.6</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2222,31 +2225,31 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27">
+        <v>0.16</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
         <v>21</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27">
-        <v>0.1066319895968791</v>
-      </c>
-      <c r="L27">
-        <v>164</v>
-      </c>
-      <c r="M27">
-        <v>167</v>
-      </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>1374</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2254,13 +2257,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6024096385542169</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2272,19 +2275,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K28">
-        <v>0.0933852140077821</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="L28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2296,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>233</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2304,13 +2307,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2322,31 +2325,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K29">
-        <v>0.0845771144278607</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M29">
         <v>21</v>
       </c>
       <c r="N29">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2354,13 +2357,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C30">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2372,31 +2375,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K30">
-        <v>0.08012820512820513</v>
+        <v>0.1092436974789916</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N30">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2404,13 +2407,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5952380952380952</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2422,19 +2425,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K31">
-        <v>0.07716049382716049</v>
+        <v>0.1059602649006623</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2446,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>299</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2454,49 +2457,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5862068965517241</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E32">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K32">
-        <v>0.0707070707070707</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N32">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="O32">
-        <v>0.1899999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>276</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2504,49 +2507,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.5769230769230769</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>16</v>
       </c>
-      <c r="E33">
-        <v>0.06</v>
-      </c>
-      <c r="F33">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
-      </c>
       <c r="J33" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K33">
-        <v>0.064343163538874</v>
+        <v>0.09675324675324676</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>149</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="N33">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O33">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>349</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2554,13 +2557,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.5681159420289855</v>
+        <v>0.5354330708661418</v>
       </c>
       <c r="C34">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="D34">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2572,31 +2575,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K34">
-        <v>0.0564516129032258</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L34">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N34">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.16</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>702</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2604,13 +2607,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.5573770491803278</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2622,31 +2625,31 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K35">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L35">
         <v>27</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K35">
-        <v>0.05208333333333334</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
-      </c>
       <c r="M35">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N35">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>273</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2654,13 +2657,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5511811023622047</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="C36">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D36">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2672,31 +2675,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="K36">
-        <v>0.0481283422459893</v>
+        <v>0.07011070110701106</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N36">
-        <v>0.87</v>
+        <v>0.53</v>
       </c>
       <c r="O36">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>534</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2704,13 +2707,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5238095238095238</v>
+        <v>0.5</v>
       </c>
       <c r="C37">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D37">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2725,28 +2728,28 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K37">
-        <v>0.04513064133016627</v>
+        <v>0.06597222222222222</v>
       </c>
       <c r="L37">
         <v>19</v>
       </c>
       <c r="M37">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N37">
-        <v>0.61</v>
+        <v>0.9</v>
       </c>
       <c r="O37">
-        <v>0.39</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>402</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2754,49 +2757,49 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5135135135135135</v>
+        <v>0.5</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K38">
-        <v>0.04373177842565597</v>
+        <v>0.05704697986577181</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>0.65</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O38">
-        <v>0.35</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>328</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2804,13 +2807,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5102040816326531</v>
+        <v>0.4921875</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2822,31 +2825,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K39">
-        <v>0.03719599427753934</v>
+        <v>0.05270270270270271</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N39">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="O39">
-        <v>0.1899999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>673</v>
+        <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2854,13 +2857,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.484375</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2872,7 +2875,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K40">
+        <v>0.03926701570680628</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>29</v>
+      </c>
+      <c r="N40">
+        <v>0.52</v>
+      </c>
+      <c r="O40">
+        <v>0.48</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2880,13 +2907,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.4909090909090909</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2898,7 +2925,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41">
+        <v>0.0380952380952381</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>0.55</v>
+      </c>
+      <c r="O41">
+        <v>0.45</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2906,13 +2957,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.4871794871794872</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="C42">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2924,7 +2975,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K42">
+        <v>0.03607503607503607</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42">
+        <v>37</v>
+      </c>
+      <c r="N42">
+        <v>0.68</v>
+      </c>
+      <c r="O42">
+        <v>0.32</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2932,25 +3007,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.4857142857142857</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>26</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K43">
+        <v>0.03441295546558704</v>
+      </c>
+      <c r="L43">
         <v>17</v>
       </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>18</v>
+      <c r="M43">
+        <v>23</v>
+      </c>
+      <c r="N43">
+        <v>0.74</v>
+      </c>
+      <c r="O43">
+        <v>0.26</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2958,13 +3057,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.484375</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="C44">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D44">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2976,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2984,13 +3083,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.4722222222222222</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3002,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3010,13 +3109,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.4642857142857143</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3028,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3036,13 +3135,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.4634146341463415</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3054,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3062,13 +3161,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4603174603174603</v>
+        <v>0.4375</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3080,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3088,25 +3187,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4583333333333333</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
         <v>22</v>
-      </c>
-      <c r="D49">
-        <v>22</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3114,13 +3213,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4545454545454545</v>
+        <v>0.4218009478672986</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3132,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>18</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3140,13 +3239,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4526315789473684</v>
+        <v>0.4158415841584158</v>
       </c>
       <c r="C51">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D51">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3158,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3166,13 +3265,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.4523809523809524</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C52">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3184,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3192,13 +3291,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.4464285714285715</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3210,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3218,13 +3317,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.4418604651162791</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D54">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3236,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3244,13 +3343,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.4347826086956522</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3262,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3270,13 +3369,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.4207920792079208</v>
+        <v>0.375</v>
       </c>
       <c r="C56">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3288,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3296,13 +3395,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.4157303370786517</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="C57">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3314,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3322,7 +3421,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.4081632653061225</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="C58">
         <v>20</v>
@@ -3340,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3348,13 +3447,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.4</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3366,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3374,13 +3473,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.3981042654028436</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C60">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="D60">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3392,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>127</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3400,13 +3499,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.396551724137931</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D61">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3418,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3426,13 +3525,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.3658536585365854</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3444,7 +3543,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3452,13 +3551,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.3623188405797101</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D63">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3470,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3478,13 +3577,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.3582089552238806</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="C64">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -3496,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3504,13 +3603,13 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.3571428571428572</v>
+        <v>0.3432835820895522</v>
       </c>
       <c r="C65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D65">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3522,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3530,13 +3629,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.3571428571428572</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3548,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3556,13 +3655,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.3518518518518519</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3574,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3582,25 +3681,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.3513513513513514</v>
+        <v>0.3212435233160622</v>
       </c>
       <c r="C68">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D68">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>48</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3608,13 +3707,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.3333333333333333</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C69">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D69">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3626,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>78</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3634,13 +3733,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.3333333333333333</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="C70">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3652,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3660,25 +3759,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.3225806451612903</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C71">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="D71">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3686,13 +3785,13 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.3214285714285715</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C72">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3704,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3712,25 +3811,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3195876288659794</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C73">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3738,25 +3837,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.3</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="C74">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3764,13 +3863,13 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2989690721649484</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C75">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D75">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3782,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3790,25 +3889,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2972972972972973</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C76">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E76">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3816,13 +3915,13 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.2967032967032967</v>
+        <v>0.285</v>
       </c>
       <c r="C77">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D77">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3834,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>64</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3842,13 +3941,13 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.2948717948717949</v>
+        <v>0.2848101265822785</v>
       </c>
       <c r="C78">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D78">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3860,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>55</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3868,25 +3967,25 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.2916666666666667</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C79">
-        <v>196</v>
+        <v>22</v>
       </c>
       <c r="D79">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="E79">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>476</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3894,13 +3993,13 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2898550724637681</v>
+        <v>0.2783505154639175</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="D80">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3912,7 +4011,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>196</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3920,13 +4019,13 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.2857142857142857</v>
+        <v>0.2717391304347826</v>
       </c>
       <c r="C81">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3938,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>40</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3946,13 +4045,13 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2848101265822785</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C82">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D82">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3964,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>226</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3972,13 +4071,13 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.2755102040816326</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="C83">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D83">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3990,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3998,13 +4097,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.27</v>
+        <v>0.265625</v>
       </c>
       <c r="C84">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D84">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4016,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>146</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4024,25 +4123,25 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2685185185185185</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C85">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D85">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4050,25 +4149,25 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.2645161290322581</v>
+        <v>0.2642857142857143</v>
       </c>
       <c r="C86">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D86">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E86">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4076,25 +4175,25 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.2571428571428571</v>
+        <v>0.2629107981220657</v>
       </c>
       <c r="C87">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4102,25 +4201,25 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.2571428571428571</v>
+        <v>0.2514880952380952</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D88">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88">
-        <v>52</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4128,13 +4227,13 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2542372881355932</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="C89">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -4146,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4154,25 +4253,25 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2535211267605634</v>
+        <v>0.2408376963350785</v>
       </c>
       <c r="C90">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D90">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
-        <v>53</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4180,13 +4279,13 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.25</v>
+        <v>0.2394366197183098</v>
       </c>
       <c r="C91">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D91">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -4198,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>237</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4206,25 +4305,25 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2474226804123711</v>
+        <v>0.2362030905077263</v>
       </c>
       <c r="C92">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="D92">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4232,13 +4331,13 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2463768115942029</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="C93">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D93">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -4250,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4258,25 +4357,25 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2432432432432433</v>
+        <v>0.2242990654205607</v>
       </c>
       <c r="C94">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D94">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4284,13 +4383,13 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.2404371584699453</v>
+        <v>0.2229299363057325</v>
       </c>
       <c r="C95">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D95">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4302,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4310,25 +4409,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.2383177570093458</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="C96">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D96">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4336,13 +4435,13 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2368421052631579</v>
+        <v>0.2207792207792208</v>
       </c>
       <c r="C97">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D97">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -4354,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>58</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4362,25 +4461,25 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2362204724409449</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="C98">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D98">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E98">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F98">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G98" t="b">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4388,25 +4487,25 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.2234513274336283</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C99">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D99">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="E99">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>351</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4414,13 +4513,13 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.2219020172910663</v>
+        <v>0.1959654178674352</v>
       </c>
       <c r="C100">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D100">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E100">
         <v>0.01</v>
@@ -4432,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4440,25 +4539,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.2146596858638743</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="C101">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D101">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
-        <v>150</v>
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4466,13 +4565,13 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1926605504587156</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="C102">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D102">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -4484,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4492,25 +4591,25 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.1923076923076923</v>
+        <v>0.1813186813186813</v>
       </c>
       <c r="C103">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D103">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4518,13 +4617,13 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.1917808219178082</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="C104">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D104">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4536,7 +4635,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>295</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4544,25 +4643,25 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1842105263157895</v>
+        <v>0.1683168316831683</v>
       </c>
       <c r="C105">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D105">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E105">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="F105">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G105" t="b">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>217</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4570,25 +4669,25 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.1818181818181818</v>
+        <v>0.1660377358490566</v>
       </c>
       <c r="C106">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D106">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>126</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4596,25 +4695,25 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.1740890688259109</v>
+        <v>0.1647058823529412</v>
       </c>
       <c r="C107">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D107">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E107">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F107">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>204</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4622,25 +4721,25 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.1720430107526882</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="C108">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108">
         <v>17</v>
       </c>
       <c r="E108">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4648,25 +4747,25 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1692307692307692</v>
+        <v>0.1532258064516129</v>
       </c>
       <c r="C109">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D109">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E109">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4674,25 +4773,25 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1612903225806452</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C110">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D110">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E110">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F110">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
       </c>
       <c r="H110">
-        <v>156</v>
+        <v>133</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4700,25 +4799,25 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1551724137931035</v>
+        <v>0.1510204081632653</v>
       </c>
       <c r="C111">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D111">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E111">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F111">
-        <v>0.95</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
       </c>
       <c r="H111">
-        <v>98</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4726,25 +4825,25 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.1510416666666667</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="C112">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D112">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
-        <v>163</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4752,25 +4851,25 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.15</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D113">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E113">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="F113">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
       </c>
       <c r="H113">
-        <v>85</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4778,13 +4877,13 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.1470588235294118</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="C114">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D114">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -4796,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4804,25 +4903,25 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1428571428571428</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="C115">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D115">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>138</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4830,25 +4929,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1424501424501425</v>
+        <v>0.1407284768211921</v>
       </c>
       <c r="C116">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D116">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="E116">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F116">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>301</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4856,25 +4955,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1407407407407407</v>
+        <v>0.1397058823529412</v>
       </c>
       <c r="C117">
         <v>19</v>
       </c>
       <c r="D117">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4882,25 +4981,25 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.1374172185430464</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="C118">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="D118">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>521</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4908,25 +5007,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1352941176470588</v>
+        <v>0.129746835443038</v>
       </c>
       <c r="C119">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D119">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E119">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F119">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G119" t="b">
         <v>1</v>
       </c>
       <c r="H119">
-        <v>147</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4934,25 +5033,25 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1339285714285714</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="C120">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120">
-        <v>97</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4960,25 +5059,25 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.129746835443038</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="C121">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D121">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E121">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>275</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4986,25 +5085,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1292517006802721</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C122">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D122">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E122">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="F122">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
       </c>
       <c r="H122">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5012,25 +5111,25 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.126410835214447</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="C123">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D123">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E123">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F123">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
       </c>
       <c r="H123">
-        <v>387</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5038,25 +5137,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1263537906137184</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="C124">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D124">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="E124">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="F124">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>242</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5064,25 +5163,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1209677419354839</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C125">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D125">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>109</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5090,13 +5189,13 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.120253164556962</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C126">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D126">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -5108,7 +5207,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5116,25 +5215,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.1202185792349727</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C127">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D127">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E127">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="F127">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>161</v>
+        <v>382</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5142,25 +5241,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.1139896373056995</v>
+        <v>0.1073446327683616</v>
       </c>
       <c r="C128">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D128">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E128">
-        <v>0.12</v>
+        <v>0.03</v>
       </c>
       <c r="F128">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>171</v>
+        <v>316</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5168,25 +5267,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.1094890510948905</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C129">
         <v>15</v>
       </c>
       <c r="D129">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5194,25 +5293,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="C130">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="D130">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="E130">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F130">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>153</v>
+        <v>708</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5220,25 +5319,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.09302325581395349</v>
+        <v>0.09619686800894854</v>
       </c>
       <c r="C131">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D131">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E131">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="F131">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>195</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5246,25 +5345,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.09154929577464789</v>
+        <v>0.09069767441860466</v>
       </c>
       <c r="C132">
         <v>39</v>
       </c>
       <c r="D132">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E132">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F132">
-        <v>0.9299999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5272,25 +5371,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.08670520231213873</v>
+        <v>0.0888208269525268</v>
       </c>
       <c r="C133">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E133">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F133">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>158</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5298,25 +5397,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.08620689655172414</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="C134">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D134">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E134">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F134">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>159</v>
+        <v>199</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5324,25 +5423,25 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.08235294117647059</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="C135">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D135">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="F135">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>390</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5350,25 +5449,25 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.08045977011494253</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C136">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D136">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="E136">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="F136">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>720</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5376,25 +5475,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07692307692307693</v>
+        <v>0.06436781609195402</v>
       </c>
       <c r="C137">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D137">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>324</v>
+        <v>407</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5402,13 +5501,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.07668711656441718</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="C138">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D138">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E138">
         <v>0.06</v>
@@ -5420,7 +5519,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>602</v>
+        <v>470</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5428,25 +5527,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07333333333333333</v>
+        <v>0.06319702602230483</v>
       </c>
       <c r="C139">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D139">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E139">
-        <v>0.04</v>
+        <v>0.53</v>
       </c>
       <c r="F139">
-        <v>0.96</v>
+        <v>0.47</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5454,25 +5553,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.06802721088435375</v>
+        <v>0.0603448275862069</v>
       </c>
       <c r="C140">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D140">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E140">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F140">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>411</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5480,77 +5579,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.064</v>
+        <v>0.03377386196769457</v>
       </c>
       <c r="C141">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D141">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E141">
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="F141">
-        <v>0.89</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="C142">
-        <v>21</v>
-      </c>
-      <c r="D142">
-        <v>28</v>
-      </c>
-      <c r="E142">
-        <v>0.25</v>
-      </c>
-      <c r="F142">
-        <v>0.75</v>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B143">
-        <v>0.03829160530191458</v>
-      </c>
-      <c r="C143">
-        <v>26</v>
-      </c>
-      <c r="D143">
-        <v>39</v>
-      </c>
-      <c r="E143">
-        <v>0.33</v>
-      </c>
-      <c r="F143">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
